--- a/05-Advection problem/squareWaveError.xlsx
+++ b/05-Advection problem/squareWaveError.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastien\Sync\!partage\MEC6215\DEVOIRS (new)\Hyperbolique\ADVECTION_2D\statement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\monam.GPUSL2\Desktop\ArrayFire-Programming\05-Advection problem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7927DB-62D0-4576-B5DE-6E965C001CE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{908EE9AC-BFFE-4FB4-AA60-768EC5F90ACE}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,8 +97,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,33 +125,38 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,13 +195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00E266"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,33 +627,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -671,104 +645,128 @@
     <xf numFmtId="11" fontId="1" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,318 +1081,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B4EF2-974B-471C-8DBB-47B4450BA879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J16"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
+    <row r="2" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="32"/>
+      <c r="D5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="40" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="40" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="42" t="s">
+    <row r="6" spans="2:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="42" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="48" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="44" t="s">
+    <row r="7" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="2:11" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32" t="s">
+    <row r="8" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="46" t="s">
+      <c r="J8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="45"/>
+      <c r="C9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="37"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4">
+    <row r="10" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="37">
         <v>4</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="7"/>
+      <c r="D10" s="4">
+        <v>0.10763526</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5">
+        <v>0.10237557999999999</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="5">
+        <v>8.4192610000000001E-2</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="5">
+        <v>8.9307650000000002E-2</v>
+      </c>
+      <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="5">
+    <row r="11" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="39">
         <v>4</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="2" t="e">
+      <c r="D11" s="6">
+        <v>9.4577229999999998E-2</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" ref="E11:E16" si="0">LOG(D10/D11)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="2" t="e">
+        <v>0.18658597110512415</v>
+      </c>
+      <c r="F11" s="7">
+        <v>8.6281049999999998E-2</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" ref="G11:G16" si="1">LOG(F10/F11)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="2" t="e">
+        <v>0.24675598671217791</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5.599088E-2</v>
+      </c>
+      <c r="I11" s="2">
         <f t="shared" ref="I11:I16" si="2">LOG(H10/H11)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="2" t="e">
+        <v>0.58850175155650786</v>
+      </c>
+      <c r="J11" s="7">
+        <v>7.5589710000000004E-2</v>
+      </c>
+      <c r="K11" s="2">
         <f t="shared" ref="K11:K16" si="3">LOG(J10/J11)/LOG(2)</f>
-        <v>#DIV/0!</v>
+        <v>0.24059390613341505</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
+    <row r="12" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="1" t="e">
+      <c r="D12" s="4">
+        <v>7.7881519999999996E-2</v>
+      </c>
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="1" t="e">
+        <v>0.28021184726550807</v>
+      </c>
+      <c r="F12" s="5">
+        <v>6.812899E-2</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="1" t="e">
+        <v>0.340774914298201</v>
+      </c>
+      <c r="H12" s="5">
+        <v>4.0831279999999998E-2</v>
+      </c>
+      <c r="I12" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="1" t="e">
+        <v>0.45551706022456251</v>
+      </c>
+      <c r="J12" s="5">
+        <v>6.2865229999999994E-2</v>
+      </c>
+      <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.2659275537837173</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="5">
+    <row r="13" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="39">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="2" t="e">
+      <c r="D13" s="6">
+        <v>5.9957299999999998E-2</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="2" t="e">
+        <v>0.37734562392319609</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5.0993320000000002E-2</v>
+      </c>
+      <c r="G13" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="2" t="e">
+        <v>0.41796054928498538</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3.023729E-2</v>
+      </c>
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="2" t="e">
+        <v>0.43334594999281545</v>
+      </c>
+      <c r="J13" s="7">
+        <v>5.2921389999999999E-2</v>
+      </c>
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.24841134543625554</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="4">
+    <row r="14" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="37">
         <v>4</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="1" t="e">
+      <c r="D14" s="4">
+        <v>4.6619840000000003E-2</v>
+      </c>
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="1" t="e">
+        <v>0.36299136411253485</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3.9159029999999997E-2</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="1" t="e">
+        <v>0.38096324125316716</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2.1701499999999999E-2</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="1" t="e">
+        <v>0.4785340799396734</v>
+      </c>
+      <c r="J14" s="5">
+        <v>2.970018E-2</v>
+      </c>
+      <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.83337928043044518</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="5">
+    <row r="15" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="39">
         <v>4</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="2" t="e">
+      <c r="D15" s="6">
+        <v>3.2636659999999998E-2</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="2" t="e">
+        <v>0.51445063208884878</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2.713983E-2</v>
+      </c>
+      <c r="G15" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="2" t="e">
+        <v>0.52893334474193798</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1.4292300000000001E-2</v>
+      </c>
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="2" t="e">
+        <v>0.60255666269762653</v>
+      </c>
+      <c r="J15" s="7">
+        <v>2.4511854E-2</v>
+      </c>
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.27699206533181758</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="6">
+    <row r="16" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="41">
         <v>4</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17" t="e">
+      <c r="D16" s="8">
+        <v>2.3624450000000002E-2</v>
+      </c>
+      <c r="E16" s="47">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17" t="e">
+        <v>0.46621267864356902</v>
+      </c>
+      <c r="F16" s="48">
+        <v>1.9534909999999999E-2</v>
+      </c>
+      <c r="G16" s="47">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="17" t="e">
+        <v>0.47435707510670405</v>
+      </c>
+      <c r="H16" s="48">
+        <v>9.5597700000000004E-3</v>
+      </c>
+      <c r="I16" s="47">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="17" t="e">
+        <v>0.58019028827839647</v>
+      </c>
+      <c r="J16" s="49">
+        <v>1.4511853999999999E-2</v>
+      </c>
+      <c r="K16" s="47">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.75624776280264872</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B5:C7"/>
+    <mergeCell ref="D5:E7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
@@ -1410,11 +1469,6 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B5:C7"/>
-    <mergeCell ref="D5:E7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
